--- a/data/trans_dic/P28B_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28B_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha dormido peor respecto al último mes</t>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>60,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>54,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,88%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,67; 56,78</t>
+          <t>31,29; 64,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 38,91</t>
+          <t>15,74; 46,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 28,91</t>
+          <t>5,15; 33,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 23,07</t>
+          <t>3,74; 31,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,18; 69,77</t>
+          <t>45,32; 73,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,88; 41,78</t>
+          <t>15,92; 41,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,96; 37,84</t>
+          <t>18,07; 44,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 32,06</t>
+          <t>7,92; 29,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,9; 60,54</t>
+          <t>44,6; 66,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,04; 35,69</t>
+          <t>18,82; 39,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 28,72</t>
+          <t>15,08; 33,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 22,69</t>
+          <t>8,79; 25,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>14,8%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 33,06</t>
+          <t>8,43; 34,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 42,17</t>
+          <t>2,59; 57,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 22,79</t>
+          <t>3,74; 23,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 17,33</t>
+          <t>1,82; 19,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,89; 62,3</t>
+          <t>41,1; 69,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,84; 44,58</t>
+          <t>22,42; 48,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 35,34</t>
+          <t>20,24; 44,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 37,83</t>
+          <t>13,2; 36,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,51; 45,32</t>
+          <t>26,57; 48,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,18; 36,41</t>
+          <t>18,31; 46,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,27; 25,71</t>
+          <t>13,2; 30,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 23,48</t>
+          <t>8,76; 23,41</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>21,33%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,73; 53,22</t>
+          <t>22,55; 46,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 37,88</t>
+          <t>18,79; 40,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 26,33</t>
+          <t>13,51; 36,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 26,54</t>
+          <t>13,58; 36,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,26; 60,97</t>
+          <t>49,25; 68,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 34,22</t>
+          <t>19,64; 37,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,97; 26,87</t>
+          <t>10,29; 24,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 27,4</t>
+          <t>13,07; 29,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,88; 54,89</t>
+          <t>40,93; 57,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,68; 33,02</t>
+          <t>21,85; 36,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 24,39</t>
+          <t>13,42; 25,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,43; 24,65</t>
+          <t>15,06; 27,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>23,3%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 53,43</t>
+          <t>30,77; 53,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 33,29</t>
+          <t>14,08; 32,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 27,78</t>
+          <t>11,17; 28,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,85; 22,95</t>
+          <t>10,54; 28,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,84; 58,74</t>
+          <t>35,74; 55,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,07; 35,6</t>
+          <t>23,7; 41,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 39,11</t>
+          <t>26,88; 45,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 36,11</t>
+          <t>19,55; 35,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,79; 53,26</t>
+          <t>36,89; 50,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,11; 32,47</t>
+          <t>21,71; 34,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 31,35</t>
+          <t>21,09; 35,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 27,72</t>
+          <t>17,85; 29,89</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>16,42%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,35; 40,26</t>
+          <t>20,7; 43,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,36; 39,09</t>
+          <t>18,97; 47,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 34,32</t>
+          <t>17,05; 45,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 21,61</t>
+          <t>8,34; 26,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,01; 53,68</t>
+          <t>35,66; 63,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 31,54</t>
+          <t>21,18; 46,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,72; 38,48</t>
+          <t>21,73; 48,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,15; 25,97</t>
+          <t>9,54; 29,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,61; 43,95</t>
+          <t>30,26; 48,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,74; 31,7</t>
+          <t>23,35; 43,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,15; 32,2</t>
+          <t>22,09; 42,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 20,81</t>
+          <t>10,98; 24,6</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>18,28%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,0; 41,61</t>
+          <t>15,29; 43,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 12,33</t>
+          <t>2,35; 22,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,19</t>
+          <t>0,0; 12,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 17,73</t>
+          <t>2,46; 24,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,72; 42,28</t>
+          <t>16,27; 44,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 22,4</t>
+          <t>11,64; 37,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,37; 27,28</t>
+          <t>10,27; 39,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,7; 32,23</t>
+          <t>11,64; 41,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,98; 38,7</t>
+          <t>19,7; 39,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,69; 15,15</t>
+          <t>9,33; 26,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 19,01</t>
+          <t>6,08; 22,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 23,85</t>
+          <t>11,41; 28,25</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,46; 40,35</t>
+          <t>28,04; 38,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,78</t>
+          <t>19,25; 32,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,26</t>
+          <t>13,29; 22,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,99</t>
+          <t>11,2; 19,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,46; 52,29</t>
+          <t>45,42; 55,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,68; 29,9</t>
+          <t>25,12; 34,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,52; 28,29</t>
+          <t>22,87; 31,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,15</t>
+          <t>18,2; 26,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,69; 45,67</t>
+          <t>38,67; 46,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,89</t>
+          <t>23,79; 31,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,63; 23,36</t>
+          <t>19,24; 25,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,49</t>
+          <t>16,06; 22,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41025</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31711</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17386</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18431</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>70887</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37229</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35986</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21283</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>111912</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68940</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>53372</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39714</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26946; 55903</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16847; 49720</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5442; 34945</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4773; 40253</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53283; 86860</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21336; 55971</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21700; 53852</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9708; 36511</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>90844; 135276</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45349; 96086</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34044; 75197</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21982; 64079</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26648</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30301</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15311</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11571</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>74285</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57775</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>40018</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29342</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>100933</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>88075</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55328</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40913</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11541; 47281</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3673; 81543</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5360; 34175</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2811; 29373</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>54793; 92013</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37013; 80743</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25643; 56476</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16117; 45099</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>71774; 130652</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56159; 143988</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35643; 81669</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24212; 64709</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47274</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46653</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32032</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31933</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>127145</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73584</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34331</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40170</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>174419</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>120236</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>66364</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72103</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31515; 64372</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30457; 65680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18149; 48779</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18698; 50786</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>106089; 147660</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51870; 98883</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21537; 50416</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26202; 58465</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>145356; 203470</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93093; 153982</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46114; 87658</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50916; 93012</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>69048</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41905</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28397</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28355</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86543</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71385</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66372</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47794</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>155591</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>113290</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>94770</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76149</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>50296; 87925</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26291; 60655</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18011; 45227</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16276; 44008</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>68369; 106158</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>51758; 91428</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49977; 85267</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33724; 62060</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>130870; 179255</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>87939; 138667</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73212; 121587</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>58335; 97694</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43899</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48302</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36378</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19021</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>50695</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38294</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>31310</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16419</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>94594</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>86596</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>67688</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35439</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28746; 59938</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29860; 75048</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22525; 59658</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10272; 32285</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>36899; 65607</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24611; 53857</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20386; 45301</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8840; 27614</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>73353; 118527</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>63904; 118104</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49906; 96038</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>23703; 53094</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>25211</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10218</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8745</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31273</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29981</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21517</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27954</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>56484</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>40198</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23570</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36698</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13800; 39383</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2566; 24798</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10482</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2216; 22427</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17415; 47795</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15676; 50758</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10591; 40644</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12871; 45556</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>38867; 77007</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22756; 64746</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11574; 42748</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22903; 56704</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>253105</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>209089</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>131557</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>118056</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>440827</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>308248</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>229534</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>182961</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>693932</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>517337</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>361091</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>301017</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>211791; 293089</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>166311; 276791</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>101516; 174003</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>88143; 156006</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>394264; 482229</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>259391; 357585</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>191906; 266717</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>149402; 217366</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>627690; 756449</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>451253; 589338</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>308516; 409630</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>258295; 353770</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>